--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>Ephb2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H2">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I2">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J2">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.017772</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N2">
-        <v>0.053316</v>
+        <v>0.07864</v>
       </c>
       <c r="O2">
-        <v>0.002629212535656932</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P2">
-        <v>0.002699072137000843</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q2">
-        <v>0.003061333632</v>
+        <v>0.006442407244444445</v>
       </c>
       <c r="R2">
-        <v>0.027552002688</v>
+        <v>0.0579816652</v>
       </c>
       <c r="S2">
-        <v>0.0002650242186482409</v>
+        <v>0.0005342831179754016</v>
       </c>
       <c r="T2">
-        <v>0.0003014643409262377</v>
+        <v>0.0006074284374572118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H3">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I3">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J3">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +620,22 @@
         <v>18.522097</v>
       </c>
       <c r="O3">
-        <v>0.9133942834993933</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P3">
-        <v>0.9376636644070619</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q3">
-        <v>1.063514113610667</v>
+        <v>1.517381636509445</v>
       </c>
       <c r="R3">
-        <v>9.571627022496001</v>
+        <v>13.656434728585</v>
       </c>
       <c r="S3">
-        <v>0.09207000309760538</v>
+        <v>0.1258398237106159</v>
       </c>
       <c r="T3">
-        <v>0.1047293826370479</v>
+        <v>0.1430677573644572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +649,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H4">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I4">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J4">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03562666666666667</v>
+        <v>0.900447</v>
       </c>
       <c r="N4">
-        <v>0.10688</v>
+        <v>1.800894</v>
       </c>
       <c r="O4">
-        <v>0.005270654884293887</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P4">
-        <v>0.005410699039737605</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q4">
-        <v>0.006136907093333333</v>
+        <v>0.221301358445</v>
       </c>
       <c r="R4">
-        <v>0.05523216384</v>
+        <v>1.32780815067</v>
       </c>
       <c r="S4">
-        <v>0.0005312812005612573</v>
+        <v>0.01835301236259905</v>
       </c>
       <c r="T4">
-        <v>0.0006043309467738819</v>
+        <v>0.01391040473608937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -717,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.172256</v>
+        <v>1.036691</v>
       </c>
       <c r="H5">
-        <v>0.516768</v>
+        <v>3.110073</v>
       </c>
       <c r="I5">
-        <v>0.1007998459820299</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J5">
-        <v>0.1116918428350044</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.52486</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N5">
-        <v>1.04972</v>
+        <v>0.07864</v>
       </c>
       <c r="O5">
-        <v>0.07764846339550401</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P5">
-        <v>0.05314108342059654</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q5">
-        <v>0.09041028415999999</v>
+        <v>0.02717512674666667</v>
       </c>
       <c r="R5">
-        <v>0.54246170496</v>
+        <v>0.24457614072</v>
       </c>
       <c r="S5">
-        <v>0.007826953151008087</v>
+        <v>0.002253693518382639</v>
       </c>
       <c r="T5">
-        <v>0.005935425537495128</v>
+        <v>0.002562232431311144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +773,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.172256</v>
+        <v>1.036691</v>
       </c>
       <c r="H6">
-        <v>0.516768</v>
+        <v>3.110073</v>
       </c>
       <c r="I6">
-        <v>0.1007998459820299</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J6">
-        <v>0.1116918428350044</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007147333333333333</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N6">
-        <v>0.021442</v>
+        <v>18.522097</v>
       </c>
       <c r="O6">
-        <v>0.001057385685151848</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P6">
-        <v>0.001085480995603047</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q6">
-        <v>0.001231171050666666</v>
+        <v>6.400563753675668</v>
       </c>
       <c r="R6">
-        <v>0.011080539456</v>
+        <v>57.605073783081</v>
       </c>
       <c r="S6">
-        <v>0.0001065843142069094</v>
+        <v>0.5308129445034908</v>
       </c>
       <c r="T6">
-        <v>0.0001212393727612797</v>
+        <v>0.6034831845026813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +850,45 @@
         <v>3.110073</v>
       </c>
       <c r="I7">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J7">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.017772</v>
+        <v>0.900447</v>
       </c>
       <c r="N7">
-        <v>0.053316</v>
+        <v>1.800894</v>
       </c>
       <c r="O7">
-        <v>0.002629212535656932</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P7">
-        <v>0.002699072137000843</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q7">
-        <v>0.018424072452</v>
+        <v>0.933485300877</v>
       </c>
       <c r="R7">
-        <v>0.165816652068</v>
+        <v>5.600911805262</v>
       </c>
       <c r="S7">
-        <v>0.001594999432557725</v>
+        <v>0.0774160058830274</v>
       </c>
       <c r="T7">
-        <v>0.001814307594853951</v>
+        <v>0.05867636078527025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -903,60 +897,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.036691</v>
+        <v>0.4156905</v>
       </c>
       <c r="H8">
-        <v>3.110073</v>
+        <v>0.831381</v>
       </c>
       <c r="I8">
-        <v>0.6066453019398833</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J8">
-        <v>0.6721967782861762</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>6.174032333333334</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N8">
-        <v>18.522097</v>
+        <v>0.07864</v>
       </c>
       <c r="O8">
-        <v>0.9133942834993933</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P8">
-        <v>0.9376636644070619</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q8">
-        <v>6.400563753675668</v>
+        <v>0.01089663364</v>
       </c>
       <c r="R8">
-        <v>57.605073783081</v>
+        <v>0.06537980184</v>
       </c>
       <c r="S8">
-        <v>0.5541063509036528</v>
+        <v>0.0009036819896220167</v>
       </c>
       <c r="T8">
-        <v>0.6302944943304374</v>
+        <v>0.0006849329134640538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -965,60 +959,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4156905</v>
+      </c>
+      <c r="H9">
+        <v>0.831381</v>
+      </c>
+      <c r="I9">
+        <v>0.2447902369039089</v>
+      </c>
+      <c r="J9">
+        <v>0.1776926317427335</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.036691</v>
-      </c>
-      <c r="H9">
-        <v>3.110073</v>
-      </c>
-      <c r="I9">
-        <v>0.6066453019398833</v>
-      </c>
-      <c r="J9">
-        <v>0.6721967782861762</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03562666666666667</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N9">
-        <v>0.10688</v>
+        <v>18.522097</v>
       </c>
       <c r="O9">
-        <v>0.005270654884293887</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P9">
-        <v>0.005410699039737605</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q9">
-        <v>0.03693384469333334</v>
+        <v>2.5664865876595</v>
       </c>
       <c r="R9">
-        <v>0.33240460224</v>
+        <v>15.398919525957</v>
       </c>
       <c r="S9">
-        <v>0.003197418023703386</v>
+        <v>0.2128444235622074</v>
       </c>
       <c r="T9">
-        <v>0.003637054462787725</v>
+        <v>0.1613224041413252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1030,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.036691</v>
+        <v>0.4156905</v>
       </c>
       <c r="H10">
-        <v>3.110073</v>
+        <v>0.831381</v>
       </c>
       <c r="I10">
-        <v>0.6066453019398833</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J10">
-        <v>0.6721967782861762</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,400 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.52486</v>
+        <v>0.900447</v>
       </c>
       <c r="N10">
-        <v>1.04972</v>
+        <v>1.800894</v>
       </c>
       <c r="O10">
-        <v>0.07764846339550401</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P10">
-        <v>0.05314108342059654</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q10">
-        <v>0.54411763826</v>
+        <v>0.3743072636535</v>
       </c>
       <c r="R10">
-        <v>3.26470582956</v>
+        <v>1.497229054614</v>
       </c>
       <c r="S10">
-        <v>0.04710507552173351</v>
+        <v>0.03104213135207945</v>
       </c>
       <c r="T10">
-        <v>0.03572126506996193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.036691</v>
-      </c>
-      <c r="H11">
-        <v>3.110073</v>
-      </c>
-      <c r="I11">
-        <v>0.6066453019398833</v>
-      </c>
-      <c r="J11">
-        <v>0.6721967782861762</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.007147333333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.021442</v>
-      </c>
-      <c r="O11">
-        <v>0.001057385685151848</v>
-      </c>
-      <c r="P11">
-        <v>0.001085480995603047</v>
-      </c>
-      <c r="Q11">
-        <v>0.007409576140666666</v>
-      </c>
-      <c r="R11">
-        <v>0.06668618526599999</v>
-      </c>
-      <c r="S11">
-        <v>0.0006414580582358533</v>
-      </c>
-      <c r="T11">
-        <v>0.0007296568281352395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.4999445</v>
-      </c>
-      <c r="H12">
-        <v>0.999889</v>
-      </c>
-      <c r="I12">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J12">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.017772</v>
-      </c>
-      <c r="N12">
-        <v>0.053316</v>
-      </c>
-      <c r="O12">
-        <v>0.002629212535656932</v>
-      </c>
-      <c r="P12">
-        <v>0.002699072137000843</v>
-      </c>
-      <c r="Q12">
-        <v>0.008885013654000001</v>
-      </c>
-      <c r="R12">
-        <v>0.053310081924</v>
-      </c>
-      <c r="S12">
-        <v>0.0007691888844509655</v>
-      </c>
-      <c r="T12">
-        <v>0.0005833002012206539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.4999445</v>
-      </c>
-      <c r="H13">
-        <v>0.999889</v>
-      </c>
-      <c r="I13">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J13">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.174032333333334</v>
-      </c>
-      <c r="N13">
-        <v>18.522097</v>
-      </c>
-      <c r="O13">
-        <v>0.9133942834993933</v>
-      </c>
-      <c r="P13">
-        <v>0.9376636644070619</v>
-      </c>
-      <c r="Q13">
-        <v>3.086673507872167</v>
-      </c>
-      <c r="R13">
-        <v>18.520041047233</v>
-      </c>
-      <c r="S13">
-        <v>0.2672179294981352</v>
-      </c>
-      <c r="T13">
-        <v>0.2026397874395767</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.4999445</v>
-      </c>
-      <c r="H14">
-        <v>0.999889</v>
-      </c>
-      <c r="I14">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J14">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.03562666666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.10688</v>
-      </c>
-      <c r="O14">
-        <v>0.005270654884293887</v>
-      </c>
-      <c r="P14">
-        <v>0.005410699039737605</v>
-      </c>
-      <c r="Q14">
-        <v>0.01781135605333333</v>
-      </c>
-      <c r="R14">
-        <v>0.10686813632</v>
-      </c>
-      <c r="S14">
-        <v>0.001541955660029244</v>
-      </c>
-      <c r="T14">
-        <v>0.001169313630175998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.4999445</v>
-      </c>
-      <c r="H15">
-        <v>0.999889</v>
-      </c>
-      <c r="I15">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J15">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.52486</v>
-      </c>
-      <c r="N15">
-        <v>1.04972</v>
-      </c>
-      <c r="O15">
-        <v>0.07764846339550401</v>
-      </c>
-      <c r="P15">
-        <v>0.05314108342059654</v>
-      </c>
-      <c r="Q15">
-        <v>0.26240087027</v>
-      </c>
-      <c r="R15">
-        <v>1.04960348108</v>
-      </c>
-      <c r="S15">
-        <v>0.02271643472276242</v>
-      </c>
-      <c r="T15">
-        <v>0.01148439281313949</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.4999445</v>
-      </c>
-      <c r="H16">
-        <v>0.999889</v>
-      </c>
-      <c r="I16">
-        <v>0.2925548520780869</v>
-      </c>
-      <c r="J16">
-        <v>0.2161113788788194</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.007147333333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.021442</v>
-      </c>
-      <c r="O16">
-        <v>0.001057385685151848</v>
-      </c>
-      <c r="P16">
-        <v>0.001085480995603047</v>
-      </c>
-      <c r="Q16">
-        <v>0.003573269989666666</v>
-      </c>
-      <c r="R16">
-        <v>0.021439619938</v>
-      </c>
-      <c r="S16">
-        <v>0.0003093433127090855</v>
-      </c>
-      <c r="T16">
-        <v>0.0002345847947065283</v>
+        <v>0.01568529468794422</v>
       </c>
     </row>
   </sheetData>
